--- a/CacheSimulation/simulations/data/data.xlsx
+++ b/CacheSimulation/simulations/data/data.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\omnetpp-5.6.1\samples\CacheSimulation\simulations\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A210414-F014-44CD-AB11-C0873455F243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>Omnet++ Simulation Parameters</t>
   </si>
@@ -51,6 +68,9 @@
     <t>Number of ToRs</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Number of aggregation switches</t>
   </si>
   <si>
@@ -69,9 +89,6 @@
     <t>us</t>
   </si>
   <si>
-    <t>SUMIF($O$4:$O$30,F5,$P$4:$P$30)*E5</t>
-  </si>
-  <si>
     <t>Gbps</t>
   </si>
   <si>
@@ -102,6 +119,9 @@
     <t>Processing time on a data packet in controller</t>
   </si>
   <si>
+    <t>flows</t>
+  </si>
+  <si>
     <t>Processing time for rule eviction</t>
   </si>
   <si>
@@ -138,9 +158,6 @@
     <t>RTT</t>
   </si>
   <si>
-    <t>4*2*E14+3*E15+E17</t>
-  </si>
-  <si>
     <t>Push insertion:</t>
   </si>
   <si>
@@ -195,9 +212,6 @@
     <t>to achieve 3% of the traffic</t>
   </si>
   <si>
-    <t>Facebook:</t>
-  </si>
-  <si>
     <t>Avarage flow size</t>
   </si>
   <si>
@@ -205,27 +219,98 @@
   </si>
   <si>
     <t>average flow duration</t>
+  </si>
+  <si>
+    <t>How many flows are seen at any given moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flows per ToR per sec: target </t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>WebSearch:</t>
+  </si>
+  <si>
+    <t>Datamining:</t>
+  </si>
+  <si>
+    <t>Case Study:</t>
+  </si>
+  <si>
+    <t>Pareto:</t>
+  </si>
+  <si>
+    <t>Facebook Hadoop:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,14 +322,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,24 +618,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="11" max="11" width="45.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -552,22 +653,23 @@
       <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -577,14 +679,19 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="K5">
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
         <f>SUMIF($O$4:$O$30,F5,$P$4:$P$30)*E5</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -592,20 +699,23 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K54" si="0">SUMIF($O$4:$O$30,F6,$P$4:$P$30)*E6</f>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:K69" si="0">SUMIF($O$4:$O$30,F6,$P$4:$P$30)*E6</f>
         <v>3</v>
       </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -613,93 +723,94 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="O7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8">
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="T8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="5">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="5">
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -707,20 +818,20 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -728,20 +839,20 @@
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -749,14 +860,16 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3">
         <f t="shared" si="0"/>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -764,70 +877,92 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3">
         <f t="shared" si="0"/>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19">
+        <v>29</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="0"/>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -835,114 +970,126 @@
       <c r="F24" t="s">
         <v>8</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26">
+        <v>35</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="0"/>
         <v>9.9999999999999991E-6</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3">
         <f t="shared" si="0"/>
         <v>9.9999999999999991E-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>4.3</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s">
         <v>39</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <f t="shared" si="0"/>
         <v>4.2999999999999995E-6</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="K31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -955,12 +1102,12 @@
       <c r="G32" t="s">
         <v>43</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -970,27 +1117,27 @@
       <c r="F33" t="s">
         <v>24</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1000,12 +1147,12 @@
       <c r="F36" t="s">
         <v>8</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1015,27 +1162,27 @@
       <c r="F37" t="s">
         <v>8</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1045,12 +1192,12 @@
       <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <f t="shared" si="0"/>
         <v>40000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1060,42 +1207,47 @@
       <c r="F41" t="s">
         <v>8</v>
       </c>
-      <c r="K41">
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
       <c r="E42">
+        <f>100*E43</f>
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42">
+        <v>16</v>
+      </c>
+      <c r="K42" s="3">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="E43">
+        <f>(1500*8)/(E40*10^3)</f>
         <v>0.3</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43">
+        <v>16</v>
+      </c>
+      <c r="K43" s="3">
         <f t="shared" si="0"/>
         <v>2.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1105,12 +1257,12 @@
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1120,17 +1272,17 @@
       <c r="F45" t="s">
         <v>18</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <f t="shared" si="0"/>
         <v>1600000000000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -1138,12 +1290,12 @@
       <c r="G46" t="s">
         <v>56</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="0"/>
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="3">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1153,78 +1305,512 @@
       <c r="F47" t="s">
         <v>22</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E54">
+        <v>4.865996</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="0"/>
+        <v>4865996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="E51">
-        <v>4.865996</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E55" s="4">
+        <f>(K54*8)/($K$45)*10^6</f>
+        <v>24.329980000000003</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4329980000000001E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <f>K54/($E$44/$K$43)*10^6</f>
+        <v>973.19920000000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7319919999999996E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="4">
+        <f>K56/K55</f>
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62">
+        <v>1.87</v>
+      </c>
+      <c r="F62" t="s">
         <v>22</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
-        <v>4865996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="K62" s="3">
+        <f t="shared" si="0"/>
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="4">
+        <f>(K62*8)/($E$45*10^12)*10^6</f>
+        <v>9.35</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3499999999999986E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="1">
-        <v>2.4300000000000001E-5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="0"/>
-        <v>2.4300000000000001E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E64">
+        <f>K62/($E$44/$K$43)*10^6</f>
+        <v>374</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E65" s="4">
+        <f>K64/K63</f>
+        <v>40.000000000000007</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="0"/>
+        <v>40.000000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K67" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70">
+        <v>7.86</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" ref="K70:K77" si="1">SUMIF($O$4:$O$30,F70,$P$4:$P$30)*E70</f>
+        <v>7860000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="4">
+        <f>(K70*8)/($E$45*10^12)*10^6</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9299999999999993E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72">
+        <f>K70/($E$44/$K$43)*10^6</f>
+        <v>1572</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5719999999999998E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="4">
+        <f>K72/K71</f>
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K77" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78">
+        <v>0.97</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="3">
+        <f>SUMIF($O$4:$O$30,F78,$P$4:$P$30)*E78</f>
+        <v>970000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="4">
+        <f>(K78*8)/($E$45*10^12)*10^6</f>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="3">
+        <f>SUMIF($O$4:$O$30,F79,$P$4:$P$30)*E79</f>
+        <v>4.8500000000000002E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80">
+        <f>K78/($E$44/$K$43)*10^6</f>
+        <v>194</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" ref="K80:K92" si="2">SUMIF($O$4:$O$30,F80,$P$4:$P$30)*E80</f>
+        <v>1.94E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="4">
+        <f>K80/K79</f>
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86">
+        <v>0.1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="3">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="4">
+        <f>(K86*8)/(K45)*10^6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88">
+        <f>K86/($E$44/$K$43)*10^6</f>
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" s="4">
+        <f>K88/K87</f>
+        <v>40</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CacheSimulation/simulations/data/data.xlsx
+++ b/CacheSimulation/simulations/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\omnetpp-5.6.1\samples\CacheSimulation\simulations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A210414-F014-44CD-AB11-C0873455F243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E86918-8E41-4BAF-801E-E0B24F4DD017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,14 +718,14 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>100000000</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>100000000</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>14</v>
@@ -982,14 +982,14 @@
         <v>33</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>

--- a/CacheSimulation/simulations/data/data.xlsx
+++ b/CacheSimulation/simulations/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\omnetpp-5.6.1\samples\CacheSimulation\simulations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E86918-8E41-4BAF-801E-E0B24F4DD017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2046C5-78D3-44BF-B9AA-B8CC6EDB1233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>Omnet++ Simulation Parameters</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>Facebook Hadoop:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>with elephant</t>
+  </si>
+  <si>
+    <t>without elephant</t>
   </si>
 </sst>
 </file>
@@ -621,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,14 +748,14 @@
         <v>15</v>
       </c>
       <c r="E8" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>16</v>
@@ -1053,7 +1062,8 @@
         <v>38</v>
       </c>
       <c r="E29">
-        <v>4.3</v>
+        <f>2*4*E14+2*3*E15+E17</f>
+        <v>5.8</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -1061,17 +1071,33 @@
       <c r="G29" t="s">
         <v>39</v>
       </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
       <c r="K29" s="3">
         <f t="shared" si="0"/>
-        <v>4.2999999999999995E-6</v>
+        <v>5.7999999999999995E-6</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f>17*E14+11*E15+E17</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.1999999999999983E-6</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1201,8 +1227,8 @@
       <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="E41">
-        <v>10000</v>
+      <c r="E41" t="s">
+        <v>69</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1210,9 +1236,9 @@
       <c r="G41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="3">
-        <f t="shared" si="0"/>
-        <v>10000</v>
+      <c r="K41" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">

--- a/CacheSimulation/simulations/data/data.xlsx
+++ b/CacheSimulation/simulations/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\omnetpp-5.6.1\samples\CacheSimulation\simulations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2046C5-78D3-44BF-B9AA-B8CC6EDB1233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3761C27-6BFC-4F70-AF37-BE0ACD87138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
   <si>
     <t>Omnet++ Simulation Parameters</t>
-  </si>
-  <si>
-    <t>sumif</t>
   </si>
   <si>
     <t>value</t>
@@ -630,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,34 +642,31 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -680,43 +674,43 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="K5" s="3">
         <f>SUMIF($O$4:$O$30,F5,$P$4:$P$30)*E5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ref="K6:K69" si="0">SUMIF($O$4:$O$30,F6,$P$4:$P$30)*E6</f>
         <v>3</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -724,20 +718,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>100000000</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="1">
         <v>1E-3</v>
@@ -745,20 +739,20 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4">
         <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" s="1">
         <v>9.9999999999999995E-7</v>
@@ -778,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="5">
         <v>1000000000</v>
@@ -790,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="5">
         <v>1000000000000</v>
@@ -806,14 +800,14 @@
     </row>
     <row r="13" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -821,20 +815,20 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="1">
         <v>1000000</v>
@@ -842,20 +836,20 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -863,13 +857,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="0"/>
@@ -880,20 +874,20 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -909,16 +903,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
@@ -929,14 +923,14 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -960,7 +954,7 @@
     </row>
     <row r="23" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="0"/>
@@ -971,13 +965,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="0"/>
@@ -988,13 +982,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="0"/>
@@ -1005,16 +999,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="0"/>
@@ -1025,13 +1019,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="0"/>
@@ -1042,13 +1036,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="0"/>
@@ -1059,20 +1053,20 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <f>2*4*E14+2*3*E15+E17</f>
         <v>5.8</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="0"/>
@@ -1087,13 +1081,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
@@ -1104,29 +1098,29 @@
     </row>
     <row r="31" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="K31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
@@ -1135,13 +1129,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="0"/>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="35" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="0"/>
@@ -1165,13 +1159,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>0.8</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="0"/>
@@ -1180,13 +1174,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="0"/>
@@ -1201,7 +1195,7 @@
     </row>
     <row r="39" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
@@ -1210,13 +1204,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="0"/>
@@ -1225,16 +1219,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K41" s="3" t="e">
         <f t="shared" si="0"/>
@@ -1243,14 +1237,14 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <f>100*E43</f>
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="0"/>
@@ -1259,14 +1253,14 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <f>(1500*8)/(E40*10^3)</f>
         <v>0.3</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="0"/>
@@ -1275,13 +1269,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <v>1500</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="0"/>
@@ -1290,13 +1284,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45">
         <v>1.6</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="0"/>
@@ -1305,16 +1299,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="0"/>
@@ -1323,13 +1317,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="0"/>
@@ -1344,14 +1338,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <f>10^6</f>
         <v>1000000</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="0"/>
@@ -1378,7 +1372,7 @@
     </row>
     <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" si="0"/>
@@ -1387,13 +1381,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54">
         <v>4.865996</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" si="0"/>
@@ -1402,14 +1396,14 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="4">
         <f>(K54*8)/($K$45)*10^6</f>
         <v>24.329980000000003</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="0"/>
@@ -1418,14 +1412,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56">
         <f>K54/($E$44/$K$43)*10^6</f>
         <v>973.19920000000002</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="0"/>
@@ -1434,14 +1428,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="4">
         <f>K56/K55</f>
         <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" si="0"/>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="0"/>
@@ -1477,13 +1471,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E62">
         <v>1.87</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" si="0"/>
@@ -1492,14 +1486,14 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="4">
         <f>(K62*8)/($E$45*10^12)*10^6</f>
         <v>9.35</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="0"/>
@@ -1508,14 +1502,14 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E64">
         <f>K62/($E$44/$K$43)*10^6</f>
         <v>374</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" si="0"/>
@@ -1524,14 +1518,14 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="4">
         <f>K64/K63</f>
         <v>40.000000000000007</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" si="0"/>
@@ -1558,7 +1552,7 @@
     </row>
     <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K69" s="3">
         <f t="shared" si="0"/>
@@ -1567,13 +1561,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70">
         <v>7.86</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" ref="K70:K77" si="1">SUMIF($O$4:$O$30,F70,$P$4:$P$30)*E70</f>
@@ -1582,14 +1576,14 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" s="4">
         <f>(K70*8)/($E$45*10^12)*10^6</f>
         <v>39.299999999999997</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" s="3">
         <f t="shared" si="1"/>
@@ -1598,14 +1592,14 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E72">
         <f>K70/($E$44/$K$43)*10^6</f>
         <v>1572</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" si="1"/>
@@ -1614,14 +1608,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E73" s="4">
         <f>K72/K71</f>
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K73" s="3">
         <f t="shared" si="1"/>
@@ -1648,7 +1642,7 @@
     </row>
     <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="1"/>
@@ -1657,13 +1651,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E78">
         <v>0.97</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" s="3">
         <f>SUMIF($O$4:$O$30,F78,$P$4:$P$30)*E78</f>
@@ -1672,14 +1666,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E79" s="4">
         <f>(K78*8)/($E$45*10^12)*10^6</f>
         <v>4.8500000000000005</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K79" s="3">
         <f>SUMIF($O$4:$O$30,F79,$P$4:$P$30)*E79</f>
@@ -1688,14 +1682,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80">
         <f>K78/($E$44/$K$43)*10^6</f>
         <v>194</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K80" s="3">
         <f t="shared" ref="K80:K92" si="2">SUMIF($O$4:$O$30,F80,$P$4:$P$30)*E80</f>
@@ -1704,14 +1698,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81" s="4">
         <f>K80/K79</f>
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K81" s="3">
         <f t="shared" si="2"/>
@@ -1738,7 +1732,7 @@
     </row>
     <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" si="2"/>
@@ -1747,13 +1741,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86">
         <v>0.1</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" si="2"/>
@@ -1762,14 +1756,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87" s="4">
         <f>(K86*8)/(K45)*10^6</f>
         <v>0.5</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K87" s="3">
         <f t="shared" si="2"/>
@@ -1778,14 +1772,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E88">
         <f>K86/($E$44/$K$43)*10^6</f>
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" si="2"/>
@@ -1794,14 +1788,14 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E89" s="4">
         <f>K88/K87</f>
         <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K89" s="3">
         <f t="shared" si="2"/>

--- a/CacheSimulation/simulations/data/data.xlsx
+++ b/CacheSimulation/simulations/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\omnetpp-5.6.1\samples\CacheSimulation\simulations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3761C27-6BFC-4F70-AF37-BE0ACD87138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AEA7D1-5CD2-4975-9771-2E1C94075E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,22 +628,22 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="11" max="11" width="45.625" customWidth="1"/>
+    <col min="11" max="11" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -672,12 +672,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -687,12 +687,12 @@
       </c>
       <c r="K5" s="3">
         <f>SUMIF($O$4:$O$30,F5,$P$4:$P$30)*E5</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -758,7 +758,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -766,7 +766,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -798,7 +798,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -901,7 +901,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>29</v>
       </c>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -944,7 +944,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -952,7 +952,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E30">
         <f>17*E14+11*E15+E17</f>
         <v>9.1999999999999993</v>
@@ -1096,7 +1096,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1142,13 +1142,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K34" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1187,13 +1187,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K38" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>40000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2.9999999999999997E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>1600000000000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1330,13 +1330,13 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -1352,25 +1352,25 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K52" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A53" s="8" t="s">
         <v>67</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>4865996</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>2.4329980000000001E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>9.7319919999999996E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1442,25 +1442,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A61" s="8" t="s">
         <v>63</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>1870000</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>9.3499999999999986E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>3.7399999999999998E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -1532,25 +1532,25 @@
         <v>40.000000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K66" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K67" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K68" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A69" s="8" t="s">
         <v>64</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>7860000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>3.9299999999999993E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1.5719999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -1622,25 +1622,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K74" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K75" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K76" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A77" s="8" t="s">
         <v>65</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>970000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>4.8500000000000002E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1.94E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -1712,25 +1712,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K82" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K83" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K84" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="21" x14ac:dyDescent="0.5">
       <c r="A85" s="8" t="s">
         <v>66</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1.9999999999999998E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -1802,31 +1802,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K90" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K91" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K92" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A97" s="8"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E99" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E101" s="4"/>
     </row>
   </sheetData>
